--- a/biology/Botanique/Campanula_celsii/Campanula_celsii.xlsx
+++ b/biology/Botanique/Campanula_celsii/Campanula_celsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula celsii est une espèce de campanule originaire de Grèce.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C. rupestris subsp. celsii</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Sous espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C. celsii subsp. carystea
 C. celsii subsp. celsii
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette campanule se distingue des espèces proches par un stigmate à cinq lobes.
 </t>
@@ -605,7 +623,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula celsii pousse dans les fissures de rochers ou les murs de pierre. Par exemple, elle est fréquente sur les sites archéologiques du Péloponnèse.
 La période de floraison s'étend de mars à mai
